--- a/predictions/Прогнозы_ETS_HA12dt.xlsx
+++ b/predictions/Прогнозы_ETS_HA12dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16050512.42112987</v>
+        <v>18886514.05431167</v>
       </c>
       <c r="C2" t="n">
-        <v>19470546.16522109</v>
+        <v>19662705.109474</v>
       </c>
       <c r="D2" t="n">
-        <v>20469773.55780771</v>
+        <v>17153970.78463669</v>
       </c>
       <c r="E2" t="n">
-        <v>18184338.27113068</v>
+        <v>14701700.83399634</v>
       </c>
       <c r="F2" t="n">
-        <v>15955402.21582008</v>
+        <v>15183182.86450426</v>
       </c>
       <c r="G2" t="n">
-        <v>16660041.04854572</v>
+        <v>15328543.41540322</v>
       </c>
       <c r="H2" t="n">
-        <v>16806059.42835595</v>
+        <v>15882361.69318843</v>
       </c>
       <c r="I2" t="n">
-        <v>17804147.38979814</v>
+        <v>14749632.23181278</v>
       </c>
       <c r="J2" t="n">
-        <v>16892828.39950446</v>
+        <v>13821980.55084867</v>
       </c>
       <c r="K2" t="n">
-        <v>16185651.59772889</v>
+        <v>14793338.80217174</v>
       </c>
       <c r="L2" t="n">
-        <v>17376420.27993946</v>
+        <v>15001094.27105545</v>
       </c>
       <c r="M2" t="n">
-        <v>17802350.53394214</v>
+        <v>10299760.58629349</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14457212.23954459</v>
+        <v>13312097.51454725</v>
       </c>
       <c r="C3" t="n">
-        <v>15137348.44227731</v>
+        <v>16191834.15425823</v>
       </c>
       <c r="D3" t="n">
-        <v>18726598.87679379</v>
+        <v>13408284.55682707</v>
       </c>
       <c r="E3" t="n">
-        <v>16621720.16104168</v>
+        <v>14390265.16225385</v>
       </c>
       <c r="F3" t="n">
-        <v>18253078.32691586</v>
+        <v>13033545.56420684</v>
       </c>
       <c r="G3" t="n">
-        <v>17517953.96894548</v>
+        <v>12251281.15308623</v>
       </c>
       <c r="H3" t="n">
-        <v>18473518.78195535</v>
+        <v>13270744.25642078</v>
       </c>
       <c r="I3" t="n">
-        <v>18920544.30385235</v>
+        <v>13415735.88049564</v>
       </c>
       <c r="J3" t="n">
-        <v>19611718.16048012</v>
+        <v>13519614.33044207</v>
       </c>
       <c r="K3" t="n">
-        <v>20238980.26204671</v>
+        <v>13535557.03975601</v>
       </c>
       <c r="L3" t="n">
-        <v>20756613.25590514</v>
+        <v>14522804.53645467</v>
       </c>
       <c r="M3" t="n">
-        <v>22224839.87395743</v>
+        <v>12992100.00474442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26096397.09694491</v>
+        <v>60969994.03560931</v>
       </c>
       <c r="C4" t="n">
-        <v>28764097.01229581</v>
+        <v>68783820.65753742</v>
       </c>
       <c r="D4" t="n">
-        <v>30889949.07342475</v>
+        <v>77324105.9631329</v>
       </c>
       <c r="E4" t="n">
-        <v>33881562.18319242</v>
+        <v>85223528.37289166</v>
       </c>
       <c r="F4" t="n">
-        <v>36178135.36850706</v>
+        <v>93832176.62794076</v>
       </c>
       <c r="G4" t="n">
-        <v>39047752.82131029</v>
+        <v>101800975.913893</v>
       </c>
       <c r="H4" t="n">
-        <v>42468703.60315646</v>
+        <v>111322195.0582887</v>
       </c>
       <c r="I4" t="n">
-        <v>44720534.80790996</v>
+        <v>119769915.6630941</v>
       </c>
       <c r="J4" t="n">
-        <v>47635207.82584918</v>
+        <v>127636405.351346</v>
       </c>
       <c r="K4" t="n">
-        <v>50663291.34379793</v>
+        <v>135099823.1917273</v>
       </c>
       <c r="L4" t="n">
-        <v>52676042.56715783</v>
+        <v>142709920.0949753</v>
       </c>
       <c r="M4" t="n">
-        <v>55494631.65766563</v>
+        <v>149334456.9253805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20592975.29645858</v>
+        <v>30570687.86599983</v>
       </c>
       <c r="C5" t="n">
-        <v>22981064.56960946</v>
+        <v>29693685.1500792</v>
       </c>
       <c r="D5" t="n">
-        <v>25254598.03554471</v>
+        <v>32311058.70588179</v>
       </c>
       <c r="E5" t="n">
-        <v>27438661.34706898</v>
+        <v>34082127.19654977</v>
       </c>
       <c r="F5" t="n">
-        <v>29720190.70139381</v>
+        <v>35280234.60384525</v>
       </c>
       <c r="G5" t="n">
-        <v>32164400.72064371</v>
+        <v>33999244.70196183</v>
       </c>
       <c r="H5" t="n">
-        <v>34680737.72217063</v>
+        <v>35705229.60087883</v>
       </c>
       <c r="I5" t="n">
-        <v>37648913.49454074</v>
+        <v>37284026.76698185</v>
       </c>
       <c r="J5" t="n">
-        <v>40928718.15010273</v>
+        <v>37781003.47193734</v>
       </c>
       <c r="K5" t="n">
-        <v>41763373.56272179</v>
+        <v>40099473.14939531</v>
       </c>
       <c r="L5" t="n">
-        <v>43510516.0171505</v>
+        <v>51957807.0855739</v>
       </c>
       <c r="M5" t="n">
-        <v>47142872.12649839</v>
+        <v>32183768.86906999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8154689.262902843</v>
+        <v>2530300.067110506</v>
       </c>
       <c r="C6" t="n">
-        <v>13508171.08772784</v>
+        <v>2983975.519522189</v>
       </c>
       <c r="D6" t="n">
-        <v>10995979.37028836</v>
+        <v>1262573.624053408</v>
       </c>
       <c r="E6" t="n">
-        <v>11618204.22246062</v>
+        <v>5585800.193168323</v>
       </c>
       <c r="F6" t="n">
-        <v>13503555.48712268</v>
+        <v>270677.3282137346</v>
       </c>
       <c r="G6" t="n">
-        <v>13260973.18049249</v>
+        <v>1685606.248380392</v>
       </c>
       <c r="H6" t="n">
-        <v>12840807.35459299</v>
+        <v>1010134.079236532</v>
       </c>
       <c r="I6" t="n">
-        <v>12913042.82332044</v>
+        <v>2391745.13937277</v>
       </c>
       <c r="J6" t="n">
-        <v>13280953.12321119</v>
+        <v>75718.20822122646</v>
       </c>
       <c r="K6" t="n">
-        <v>14385290.50445244</v>
+        <v>2734302.162169337</v>
       </c>
       <c r="L6" t="n">
-        <v>14706022.75744675</v>
+        <v>650747.7263905881</v>
       </c>
       <c r="M6" t="n">
-        <v>22021915.2010733</v>
+        <v>302790.3115855367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137323.383693046</v>
+        <v>15459388.08109415</v>
       </c>
       <c r="C7" t="n">
-        <v>2493488.125575901</v>
+        <v>17547444.33580022</v>
       </c>
       <c r="D7" t="n">
-        <v>2610580.832107309</v>
+        <v>16785616.73145315</v>
       </c>
       <c r="E7" t="n">
-        <v>3069452.488522054</v>
+        <v>18174274.56839297</v>
       </c>
       <c r="F7" t="n">
-        <v>2069377.496861379</v>
+        <v>17104701.50696759</v>
       </c>
       <c r="G7" t="n">
-        <v>3669474.004555368</v>
+        <v>17733283.56905614</v>
       </c>
       <c r="H7" t="n">
-        <v>2229314.18351472</v>
+        <v>18272975.99030171</v>
       </c>
       <c r="I7" t="n">
-        <v>2497078.112220293</v>
+        <v>18428762.49398066</v>
       </c>
       <c r="J7" t="n">
-        <v>3044469.863896037</v>
+        <v>19647159.23265094</v>
       </c>
       <c r="K7" t="n">
-        <v>2557481.680892923</v>
+        <v>18773571.66447549</v>
       </c>
       <c r="L7" t="n">
-        <v>2901205.06463882</v>
+        <v>19864429.70141627</v>
       </c>
       <c r="M7" t="n">
-        <v>4702689.138746873</v>
+        <v>19533948.27449549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1003789.735303239</v>
+        <v>20059694.68990619</v>
       </c>
       <c r="C8" t="n">
-        <v>1449454.121708027</v>
+        <v>22139038.59723862</v>
       </c>
       <c r="D8" t="n">
-        <v>1226997.525688332</v>
+        <v>21610960.07124287</v>
       </c>
       <c r="E8" t="n">
-        <v>1486786.375633104</v>
+        <v>19862989.75229387</v>
       </c>
       <c r="F8" t="n">
-        <v>1384268.223884814</v>
+        <v>19717358.33013584</v>
       </c>
       <c r="G8" t="n">
-        <v>1775812.605964768</v>
+        <v>19554489.96323793</v>
       </c>
       <c r="H8" t="n">
-        <v>1957109.143597671</v>
+        <v>16354108.79825889</v>
       </c>
       <c r="I8" t="n">
-        <v>1806945.070939682</v>
+        <v>18948532.63030973</v>
       </c>
       <c r="J8" t="n">
-        <v>1708933.619176609</v>
+        <v>18796793.45183188</v>
       </c>
       <c r="K8" t="n">
-        <v>1979086.599324076</v>
+        <v>20379453.15195011</v>
       </c>
       <c r="L8" t="n">
-        <v>2571929.863576132</v>
+        <v>25929243.51037148</v>
       </c>
       <c r="M8" t="n">
-        <v>1967381.911337372</v>
+        <v>14250685.62542837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11922402.29667849</v>
+        <v>26792143.15511948</v>
       </c>
       <c r="C9" t="n">
-        <v>15073037.30148394</v>
+        <v>29943637.98103922</v>
       </c>
       <c r="D9" t="n">
-        <v>18239566.68933126</v>
+        <v>30745790.43387407</v>
       </c>
       <c r="E9" t="n">
-        <v>21159172.21063347</v>
+        <v>29608605.8537959</v>
       </c>
       <c r="F9" t="n">
-        <v>24381106.71952917</v>
+        <v>30408863.47982288</v>
       </c>
       <c r="G9" t="n">
-        <v>26416690.69845551</v>
+        <v>29337277.31676706</v>
       </c>
       <c r="H9" t="n">
-        <v>29250164.65018484</v>
+        <v>29853048.82018373</v>
       </c>
       <c r="I9" t="n">
-        <v>31689209.12560495</v>
+        <v>28485466.44882056</v>
       </c>
       <c r="J9" t="n">
-        <v>34160226.3303813</v>
+        <v>28474277.00253242</v>
       </c>
       <c r="K9" t="n">
-        <v>37223420.50643955</v>
+        <v>28689117.38606819</v>
       </c>
       <c r="L9" t="n">
-        <v>39138438.54649531</v>
+        <v>37088951.33072179</v>
       </c>
       <c r="M9" t="n">
-        <v>41778630.60652839</v>
+        <v>26938688.60771501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13363131.03329417</v>
+        <v>15328977.26918439</v>
       </c>
       <c r="C10" t="n">
-        <v>15939341.531092</v>
+        <v>16428260.38489086</v>
       </c>
       <c r="D10" t="n">
-        <v>17240264.40837763</v>
+        <v>17895055.15985609</v>
       </c>
       <c r="E10" t="n">
-        <v>18441346.49118526</v>
+        <v>18836122.95475864</v>
       </c>
       <c r="F10" t="n">
-        <v>18866291.34639581</v>
+        <v>18768188.1705195</v>
       </c>
       <c r="G10" t="n">
-        <v>18862909.57824432</v>
+        <v>21717552.75551585</v>
       </c>
       <c r="H10" t="n">
-        <v>19117472.08383923</v>
+        <v>18945862.60852438</v>
       </c>
       <c r="I10" t="n">
-        <v>20502658.46597456</v>
+        <v>18478970.27153618</v>
       </c>
       <c r="J10" t="n">
-        <v>21319199.28624639</v>
+        <v>18954200.55139121</v>
       </c>
       <c r="K10" t="n">
-        <v>20902485.23911252</v>
+        <v>18942953.96675394</v>
       </c>
       <c r="L10" t="n">
-        <v>21989145.56826129</v>
+        <v>19165845.95111073</v>
       </c>
       <c r="M10" t="n">
-        <v>25238652.63032987</v>
+        <v>17682358.45431839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-427606.816835702</v>
+        <v>19807803.06482929</v>
       </c>
       <c r="C11" t="n">
-        <v>1162193.0469134</v>
+        <v>20106372.92844506</v>
       </c>
       <c r="D11" t="n">
-        <v>1050358.011539193</v>
+        <v>20941928.94140437</v>
       </c>
       <c r="E11" t="n">
-        <v>-18125.64135671488</v>
+        <v>21207290.91815098</v>
       </c>
       <c r="F11" t="n">
-        <v>4604651.600182981</v>
+        <v>23143049.86784939</v>
       </c>
       <c r="G11" t="n">
-        <v>-369864.0037806631</v>
+        <v>23429354.75210323</v>
       </c>
       <c r="H11" t="n">
-        <v>1061407.472689824</v>
+        <v>23770275.47685775</v>
       </c>
       <c r="I11" t="n">
-        <v>434895.0478996848</v>
+        <v>25100070.26031484</v>
       </c>
       <c r="J11" t="n">
-        <v>1619519.146760814</v>
+        <v>26644590.06612096</v>
       </c>
       <c r="K11" t="n">
-        <v>-495327.7936350636</v>
+        <v>27135928.22151716</v>
       </c>
       <c r="L11" t="n">
-        <v>1961139.907036179</v>
+        <v>26131146.21715017</v>
       </c>
       <c r="M11" t="n">
-        <v>-224232.4551171529</v>
+        <v>25809546.58050815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516805.7652785796</v>
+        <v>43081065.9212596</v>
       </c>
       <c r="C12" t="n">
-        <v>1183840.365356723</v>
+        <v>42353806.22535721</v>
       </c>
       <c r="D12" t="n">
-        <v>1752195.440821774</v>
+        <v>45167470.61864094</v>
       </c>
       <c r="E12" t="n">
-        <v>1102156.736040752</v>
+        <v>39938976.74610315</v>
       </c>
       <c r="F12" t="n">
-        <v>805442.1979681471</v>
+        <v>43105058.36482525</v>
       </c>
       <c r="G12" t="n">
-        <v>467734.2313775993</v>
+        <v>45507339.88938054</v>
       </c>
       <c r="H12" t="n">
-        <v>835737.086880681</v>
+        <v>43038016.04464815</v>
       </c>
       <c r="I12" t="n">
-        <v>408139.605606567</v>
+        <v>46942443.52147833</v>
       </c>
       <c r="J12" t="n">
-        <v>607912.7126693995</v>
+        <v>49234854.77913369</v>
       </c>
       <c r="K12" t="n">
-        <v>409538.4185399443</v>
+        <v>47894579.90251888</v>
       </c>
       <c r="L12" t="n">
-        <v>614390.3867386158</v>
+        <v>41838432.12728748</v>
       </c>
       <c r="M12" t="n">
-        <v>718964.9608701271</v>
+        <v>40280762.04286362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3046502.430084938</v>
+        <v>35109076.33543546</v>
       </c>
       <c r="C13" t="n">
-        <v>3354001.530426417</v>
+        <v>33488286.57599615</v>
       </c>
       <c r="D13" t="n">
-        <v>3941977.944359919</v>
+        <v>37796350.07206629</v>
       </c>
       <c r="E13" t="n">
-        <v>4058694.254251319</v>
+        <v>31193765.23803863</v>
       </c>
       <c r="F13" t="n">
-        <v>4701390.796353477</v>
+        <v>36015544.57824881</v>
       </c>
       <c r="G13" t="n">
-        <v>4615447.524184149</v>
+        <v>37778708.25179195</v>
       </c>
       <c r="H13" t="n">
-        <v>5267342.91576364</v>
+        <v>41043343.98791802</v>
       </c>
       <c r="I13" t="n">
-        <v>5497599.705719111</v>
+        <v>40948855.26064211</v>
       </c>
       <c r="J13" t="n">
-        <v>5713781.804278328</v>
+        <v>43724889.95133595</v>
       </c>
       <c r="K13" t="n">
-        <v>6203831.121293338</v>
+        <v>37325624.12654491</v>
       </c>
       <c r="L13" t="n">
-        <v>6239250.190269796</v>
+        <v>34662043.71971288</v>
       </c>
       <c r="M13" t="n">
-        <v>6581446.727357293</v>
+        <v>32002055.34388363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-214384.6219698628</v>
+        <v>1108300.282725124</v>
       </c>
       <c r="C14" t="n">
-        <v>1101976.549364194</v>
+        <v>1088570.795843387</v>
       </c>
       <c r="D14" t="n">
-        <v>2237674.233184597</v>
+        <v>1021085.711917912</v>
       </c>
       <c r="E14" t="n">
-        <v>1291168.419028749</v>
+        <v>938742.1724304112</v>
       </c>
       <c r="F14" t="n">
-        <v>386940.7755409541</v>
+        <v>1090031.464715487</v>
       </c>
       <c r="G14" t="n">
-        <v>388735.1714515444</v>
+        <v>1424657.842971342</v>
       </c>
       <c r="H14" t="n">
-        <v>201178.4223958703</v>
+        <v>1005096.512577678</v>
       </c>
       <c r="I14" t="n">
-        <v>263014.9864932541</v>
+        <v>985961.122498775</v>
       </c>
       <c r="J14" t="n">
-        <v>10842.63294912037</v>
+        <v>967274.4561713199</v>
       </c>
       <c r="K14" t="n">
-        <v>797053.3364661363</v>
+        <v>952011.259848625</v>
       </c>
       <c r="L14" t="n">
-        <v>-138650.6066657837</v>
+        <v>930543.2900716671</v>
       </c>
       <c r="M14" t="n">
-        <v>89061.8826102743</v>
+        <v>885222.6875558656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1164687.581331864</v>
+        <v>4584030.437638177</v>
       </c>
       <c r="C15" t="n">
-        <v>1093155.019676821</v>
+        <v>5709578.907285331</v>
       </c>
       <c r="D15" t="n">
-        <v>1134255.66291581</v>
+        <v>6177329.83284135</v>
       </c>
       <c r="E15" t="n">
-        <v>1232956.412657672</v>
+        <v>4783090.034459528</v>
       </c>
       <c r="F15" t="n">
-        <v>1199638.308117608</v>
+        <v>5059025.027045304</v>
       </c>
       <c r="G15" t="n">
-        <v>1349862.718187021</v>
+        <v>4169739.831553188</v>
       </c>
       <c r="H15" t="n">
-        <v>1453585.72597228</v>
+        <v>5624991.890859239</v>
       </c>
       <c r="I15" t="n">
-        <v>1352826.99234948</v>
+        <v>5159985.912231312</v>
       </c>
       <c r="J15" t="n">
-        <v>1384770.276547106</v>
+        <v>5010381.082275775</v>
       </c>
       <c r="K15" t="n">
-        <v>1439920.937515529</v>
+        <v>5705728.558545099</v>
       </c>
       <c r="L15" t="n">
-        <v>1447314.335699108</v>
+        <v>5279422.715725588</v>
       </c>
       <c r="M15" t="n">
-        <v>1751234.820972111</v>
+        <v>5133338.268624143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1605200.588482265</v>
+        <v>6890921.855890753</v>
       </c>
       <c r="C16" t="n">
-        <v>1839017.908816934</v>
+        <v>6920144.855910923</v>
       </c>
       <c r="D16" t="n">
-        <v>1842217.283404604</v>
+        <v>9241940.345473882</v>
       </c>
       <c r="E16" t="n">
-        <v>1894861.090714242</v>
+        <v>8183295.313477956</v>
       </c>
       <c r="F16" t="n">
-        <v>2037015.431547702</v>
+        <v>8124311.693616251</v>
       </c>
       <c r="G16" t="n">
-        <v>1999640.105020477</v>
+        <v>8658548.057207767</v>
       </c>
       <c r="H16" t="n">
-        <v>2128814.066753814</v>
+        <v>6771503.909664618</v>
       </c>
       <c r="I16" t="n">
-        <v>2121272.949739725</v>
+        <v>9952569.45038316</v>
       </c>
       <c r="J16" t="n">
-        <v>2153943.441578934</v>
+        <v>9142866.450797064</v>
       </c>
       <c r="K16" t="n">
-        <v>2202516.496486849</v>
+        <v>10704895.28060247</v>
       </c>
       <c r="L16" t="n">
-        <v>2188516.803725915</v>
+        <v>10245530.52559869</v>
       </c>
       <c r="M16" t="n">
-        <v>2489195.593030237</v>
+        <v>9803340.141855227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6188302.341238209</v>
+        <v>5657114.939781002</v>
       </c>
       <c r="C17" t="n">
-        <v>7130642.962201041</v>
+        <v>4950156.863465657</v>
       </c>
       <c r="D17" t="n">
-        <v>7468530.346356736</v>
+        <v>5344911.064433333</v>
       </c>
       <c r="E17" t="n">
-        <v>7357146.71938049</v>
+        <v>5056173.03803384</v>
       </c>
       <c r="F17" t="n">
-        <v>8865356.200464524</v>
+        <v>5375083.595614732</v>
       </c>
       <c r="G17" t="n">
-        <v>7726780.62904159</v>
+        <v>5591272.700292</v>
       </c>
       <c r="H17" t="n">
-        <v>7827475.299921405</v>
+        <v>5575383.553568006</v>
       </c>
       <c r="I17" t="n">
-        <v>7952177.915576735</v>
+        <v>6209029.113626925</v>
       </c>
       <c r="J17" t="n">
-        <v>8044377.224253451</v>
+        <v>6302208.969180597</v>
       </c>
       <c r="K17" t="n">
-        <v>7847465.940970402</v>
+        <v>6623918.29575698</v>
       </c>
       <c r="L17" t="n">
-        <v>7845105.699450999</v>
+        <v>6034165.25071535</v>
       </c>
       <c r="M17" t="n">
-        <v>7725795.727966798</v>
+        <v>5322215.869709518</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-280655.8364155833</v>
+        <v>4085465.487347752</v>
       </c>
       <c r="C18" t="n">
-        <v>339631.7848480967</v>
+        <v>3486683.532534338</v>
       </c>
       <c r="D18" t="n">
-        <v>441140.0316624286</v>
+        <v>3572411.592693285</v>
       </c>
       <c r="E18" t="n">
-        <v>94857.49110338988</v>
+        <v>4653879.377241172</v>
       </c>
       <c r="F18" t="n">
-        <v>-445472.9624948906</v>
+        <v>3464606.445109474</v>
       </c>
       <c r="G18" t="n">
-        <v>-281692.2884681657</v>
+        <v>3140023.583651585</v>
       </c>
       <c r="H18" t="n">
-        <v>-708300.1641522178</v>
+        <v>3463354.182891871</v>
       </c>
       <c r="I18" t="n">
-        <v>-1128306.295548935</v>
+        <v>3875109.125648116</v>
       </c>
       <c r="J18" t="n">
-        <v>-668656.6762570819</v>
+        <v>3303370.00338544</v>
       </c>
       <c r="K18" t="n">
-        <v>-1082997.020718481</v>
+        <v>3178405.077235107</v>
       </c>
       <c r="L18" t="n">
-        <v>-846426.4798638467</v>
+        <v>3683175.895895333</v>
       </c>
       <c r="M18" t="n">
-        <v>1467507.691042076</v>
+        <v>3119331.562605849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-74269.87165737998</v>
+        <v>5088473.466220484</v>
       </c>
       <c r="C19" t="n">
-        <v>-66458.1799490938</v>
+        <v>6754457.261402523</v>
       </c>
       <c r="D19" t="n">
-        <v>192180.666411424</v>
+        <v>4681705.764693044</v>
       </c>
       <c r="E19" t="n">
-        <v>-38890.22402160917</v>
+        <v>4122740.173055689</v>
       </c>
       <c r="F19" t="n">
-        <v>49774.77451300947</v>
+        <v>4059715.510818338</v>
       </c>
       <c r="G19" t="n">
-        <v>-71099.83653752955</v>
+        <v>6110579.153356266</v>
       </c>
       <c r="H19" t="n">
-        <v>-6048.821635566421</v>
+        <v>7240029.450006261</v>
       </c>
       <c r="I19" t="n">
-        <v>-78964.26813057454</v>
+        <v>4986265.707514638</v>
       </c>
       <c r="J19" t="n">
-        <v>255765.8367310891</v>
+        <v>6823258.772976253</v>
       </c>
       <c r="K19" t="n">
-        <v>-38837.45880587262</v>
+        <v>5377980.819703973</v>
       </c>
       <c r="L19" t="n">
-        <v>-89030.71819611269</v>
+        <v>6567959.178899827</v>
       </c>
       <c r="M19" t="n">
-        <v>60436.81943359651</v>
+        <v>3579968.23343562</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>800772.417802335</v>
+        <v>2339041.927312723</v>
       </c>
       <c r="C20" t="n">
-        <v>2349755.959607965</v>
+        <v>2566967.99471795</v>
       </c>
       <c r="D20" t="n">
-        <v>2118584.319985648</v>
+        <v>436284.1919823121</v>
       </c>
       <c r="E20" t="n">
-        <v>2170283.889224373</v>
+        <v>700267.890511564</v>
       </c>
       <c r="F20" t="n">
-        <v>2160195.923218403</v>
+        <v>1755572.687896585</v>
       </c>
       <c r="G20" t="n">
-        <v>2539792.16283947</v>
+        <v>720905.5234548564</v>
       </c>
       <c r="H20" t="n">
-        <v>2093685.857149871</v>
+        <v>275239.805924171</v>
       </c>
       <c r="I20" t="n">
-        <v>2251147.107334497</v>
+        <v>986531.9075467192</v>
       </c>
       <c r="J20" t="n">
-        <v>2253216.750166492</v>
+        <v>1434724.174661215</v>
       </c>
       <c r="K20" t="n">
-        <v>2484469.197824491</v>
+        <v>1528187.368394772</v>
       </c>
       <c r="L20" t="n">
-        <v>2394968.572757413</v>
+        <v>478416.6857329295</v>
       </c>
       <c r="M20" t="n">
-        <v>2885465.210438758</v>
+        <v>386103.2809021955</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1126865.604482458</v>
+        <v>2849106.441550361</v>
       </c>
       <c r="C21" t="n">
-        <v>1849591.313874749</v>
+        <v>3041024.72151693</v>
       </c>
       <c r="D21" t="n">
-        <v>1469006.739496254</v>
+        <v>3755907.753180398</v>
       </c>
       <c r="E21" t="n">
-        <v>2104829.713907604</v>
+        <v>3346606.351488267</v>
       </c>
       <c r="F21" t="n">
-        <v>2176320.688700187</v>
+        <v>4051687.3527158</v>
       </c>
       <c r="G21" t="n">
-        <v>1590352.887829538</v>
+        <v>3353374.046601369</v>
       </c>
       <c r="H21" t="n">
-        <v>1922118.156190407</v>
+        <v>3123333.244991595</v>
       </c>
       <c r="I21" t="n">
-        <v>1353831.763833896</v>
+        <v>3149004.016135415</v>
       </c>
       <c r="J21" t="n">
-        <v>1402937.969965773</v>
+        <v>4404044.65111374</v>
       </c>
       <c r="K21" t="n">
-        <v>2122841.90957441</v>
+        <v>4000835.647637773</v>
       </c>
       <c r="L21" t="n">
-        <v>1460260.126580549</v>
+        <v>4256530.828024882</v>
       </c>
       <c r="M21" t="n">
-        <v>1433373.658691092</v>
+        <v>3469519.910972063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396338.8301803709</v>
+        <v>10227927.39510266</v>
       </c>
       <c r="C22" t="n">
-        <v>-181044.1460747769</v>
+        <v>10557935.24722709</v>
       </c>
       <c r="D22" t="n">
-        <v>478040.9228796297</v>
+        <v>13170225.52208228</v>
       </c>
       <c r="E22" t="n">
-        <v>198642.5347358475</v>
+        <v>10843869.9771406</v>
       </c>
       <c r="F22" t="n">
-        <v>-268768.0901179084</v>
+        <v>13016246.1769801</v>
       </c>
       <c r="G22" t="n">
-        <v>-347838.5122884875</v>
+        <v>11520411.28944096</v>
       </c>
       <c r="H22" t="n">
-        <v>-764651.2725934533</v>
+        <v>10955559.86190535</v>
       </c>
       <c r="I22" t="n">
-        <v>-892629.7526293451</v>
+        <v>12894890.49734081</v>
       </c>
       <c r="J22" t="n">
-        <v>-903958.8169828141</v>
+        <v>14318573.19550382</v>
       </c>
       <c r="K22" t="n">
-        <v>-811471.1371957117</v>
+        <v>13690732.3509083</v>
       </c>
       <c r="L22" t="n">
-        <v>16679.48092513523</v>
+        <v>13897638.19536592</v>
       </c>
       <c r="M22" t="n">
-        <v>538151.8134867579</v>
+        <v>10879521.05391676</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-91524.78131642712</v>
+        <v>6591889.373879085</v>
       </c>
       <c r="C23" t="n">
-        <v>69449.59719810617</v>
+        <v>6138785.004746364</v>
       </c>
       <c r="D23" t="n">
-        <v>17081.86491758585</v>
+        <v>6868786.892003622</v>
       </c>
       <c r="E23" t="n">
-        <v>-71523.95718165273</v>
+        <v>5522479.708299654</v>
       </c>
       <c r="F23" t="n">
-        <v>-26664.1418614459</v>
+        <v>7086304.732702214</v>
       </c>
       <c r="G23" t="n">
-        <v>-91797.69262335301</v>
+        <v>6741721.694572048</v>
       </c>
       <c r="H23" t="n">
-        <v>-91640.67795701737</v>
+        <v>13358527.08511075</v>
       </c>
       <c r="I23" t="n">
-        <v>-91659.96785112048</v>
+        <v>9968950.06621993</v>
       </c>
       <c r="J23" t="n">
-        <v>-91678.42874169588</v>
+        <v>6775566.530328517</v>
       </c>
       <c r="K23" t="n">
-        <v>-90556.33106549704</v>
+        <v>6527467.012292683</v>
       </c>
       <c r="L23" t="n">
-        <v>-84179.53873060676</v>
+        <v>6472044.192565096</v>
       </c>
       <c r="M23" t="n">
-        <v>205342.6145135137</v>
+        <v>2502901.064905508</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9135114.002262354</v>
+        <v>9898789.895066829</v>
       </c>
       <c r="C24" t="n">
-        <v>12337802.62738491</v>
+        <v>11488100.78941018</v>
       </c>
       <c r="D24" t="n">
-        <v>14297828.05007363</v>
+        <v>11797938.55491471</v>
       </c>
       <c r="E24" t="n">
-        <v>13788819.93114264</v>
+        <v>9215637.714127241</v>
       </c>
       <c r="F24" t="n">
-        <v>12719831.17499543</v>
+        <v>10372867.49057152</v>
       </c>
       <c r="G24" t="n">
-        <v>12960913.60704502</v>
+        <v>10758711.29435116</v>
       </c>
       <c r="H24" t="n">
-        <v>13339890.7882607</v>
+        <v>9584991.831932107</v>
       </c>
       <c r="I24" t="n">
-        <v>11133812.66335829</v>
+        <v>11128675.16387569</v>
       </c>
       <c r="J24" t="n">
-        <v>12561692.73301578</v>
+        <v>10648247.60560923</v>
       </c>
       <c r="K24" t="n">
-        <v>11299251.26506253</v>
+        <v>11304374.75328987</v>
       </c>
       <c r="L24" t="n">
-        <v>11830015.49497426</v>
+        <v>13917181.78503062</v>
       </c>
       <c r="M24" t="n">
-        <v>14476169.93511828</v>
+        <v>8703919.906686943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1908239.77256087</v>
+        <v>4069550.565189482</v>
       </c>
       <c r="C25" t="n">
-        <v>2961051.346632526</v>
+        <v>5244846.444544038</v>
       </c>
       <c r="D25" t="n">
-        <v>2714384.451650448</v>
+        <v>5213520.579903133</v>
       </c>
       <c r="E25" t="n">
-        <v>2832719.297083754</v>
+        <v>3554805.914373567</v>
       </c>
       <c r="F25" t="n">
-        <v>2748456.825490281</v>
+        <v>3811203.547529093</v>
       </c>
       <c r="G25" t="n">
-        <v>2437251.757557428</v>
+        <v>4627395.087775626</v>
       </c>
       <c r="H25" t="n">
-        <v>2585928.644607304</v>
+        <v>4021778.548072963</v>
       </c>
       <c r="I25" t="n">
-        <v>2670534.566658823</v>
+        <v>5624279.472430084</v>
       </c>
       <c r="J25" t="n">
-        <v>2379661.181566052</v>
+        <v>5500315.346019648</v>
       </c>
       <c r="K25" t="n">
-        <v>3330066.141540311</v>
+        <v>5038960.722183256</v>
       </c>
       <c r="L25" t="n">
-        <v>3189451.584812585</v>
+        <v>6017365.400045825</v>
       </c>
       <c r="M25" t="n">
-        <v>2900699.148305445</v>
+        <v>3416646.046970086</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11391297.33772479</v>
+        <v>10517142.60721363</v>
       </c>
       <c r="C26" t="n">
-        <v>11621002.83339469</v>
+        <v>10139774.4126647</v>
       </c>
       <c r="D26" t="n">
-        <v>13745492.16289034</v>
+        <v>9345497.086973019</v>
       </c>
       <c r="E26" t="n">
-        <v>15927172.65548198</v>
+        <v>10587566.92821477</v>
       </c>
       <c r="F26" t="n">
-        <v>14922799.24841626</v>
+        <v>8961429.757753564</v>
       </c>
       <c r="G26" t="n">
-        <v>15258945.12827477</v>
+        <v>7871589.448108674</v>
       </c>
       <c r="H26" t="n">
-        <v>13883937.81843966</v>
+        <v>10532118.53707021</v>
       </c>
       <c r="I26" t="n">
-        <v>14315095.50692483</v>
+        <v>10371481.08707094</v>
       </c>
       <c r="J26" t="n">
-        <v>13068477.61548252</v>
+        <v>10115508.26121073</v>
       </c>
       <c r="K26" t="n">
-        <v>13138656.19236622</v>
+        <v>8837986.009440124</v>
       </c>
       <c r="L26" t="n">
-        <v>12717981.6211639</v>
+        <v>11131310.86619241</v>
       </c>
       <c r="M26" t="n">
-        <v>14512460.15820783</v>
+        <v>8159690.953361004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16391268.5566613</v>
+        <v>3474944.042563627</v>
       </c>
       <c r="C27" t="n">
-        <v>17483026.25487414</v>
+        <v>4149368.287513216</v>
       </c>
       <c r="D27" t="n">
-        <v>18602176.30423652</v>
+        <v>3325312.420254449</v>
       </c>
       <c r="E27" t="n">
-        <v>17260381.90172089</v>
+        <v>3052369.820520315</v>
       </c>
       <c r="F27" t="n">
-        <v>17222559.06196014</v>
+        <v>2246372.532098013</v>
       </c>
       <c r="G27" t="n">
-        <v>17757652.71154695</v>
+        <v>3484522.312146328</v>
       </c>
       <c r="H27" t="n">
-        <v>17589031.17789801</v>
+        <v>3517290.405657885</v>
       </c>
       <c r="I27" t="n">
-        <v>18125592.23380991</v>
+        <v>3109359.471649915</v>
       </c>
       <c r="J27" t="n">
-        <v>18440369.41338225</v>
+        <v>3252428.61598156</v>
       </c>
       <c r="K27" t="n">
-        <v>18405849.29890778</v>
+        <v>2751374.600677869</v>
       </c>
       <c r="L27" t="n">
-        <v>19269060.5983307</v>
+        <v>4044419.313717739</v>
       </c>
       <c r="M27" t="n">
-        <v>25803590.27728178</v>
+        <v>2438167.301517361</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19256783.78314278</v>
+        <v>12026964.24840552</v>
       </c>
       <c r="C28" t="n">
-        <v>19393299.36831305</v>
+        <v>11828189.00352715</v>
       </c>
       <c r="D28" t="n">
-        <v>20883250.54809022</v>
+        <v>11895890.63256683</v>
       </c>
       <c r="E28" t="n">
-        <v>22662893.96949686</v>
+        <v>8820866.496504461</v>
       </c>
       <c r="F28" t="n">
-        <v>23838734.66986652</v>
+        <v>11212948.92223895</v>
       </c>
       <c r="G28" t="n">
-        <v>23975247.82221009</v>
+        <v>11801071.37985412</v>
       </c>
       <c r="H28" t="n">
-        <v>24003389.33869191</v>
+        <v>11791210.56189056</v>
       </c>
       <c r="I28" t="n">
-        <v>24255765.35111734</v>
+        <v>9116778.780951671</v>
       </c>
       <c r="J28" t="n">
-        <v>24671472.06019675</v>
+        <v>8508872.030827066</v>
       </c>
       <c r="K28" t="n">
-        <v>25157917.23371943</v>
+        <v>10214157.59649752</v>
       </c>
       <c r="L28" t="n">
-        <v>25214018.95064345</v>
+        <v>14130141.00165153</v>
       </c>
       <c r="M28" t="n">
-        <v>25761573.79817244</v>
+        <v>9576330.608478256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22342871.50030677</v>
+        <v>1839240.003061083</v>
       </c>
       <c r="C29" t="n">
-        <v>23787634.35865368</v>
+        <v>2083264.149946267</v>
       </c>
       <c r="D29" t="n">
-        <v>24362020.71284985</v>
+        <v>2203234.652953489</v>
       </c>
       <c r="E29" t="n">
-        <v>25465567.77852111</v>
+        <v>2183871.30594932</v>
       </c>
       <c r="F29" t="n">
-        <v>25993061.7106213</v>
+        <v>2319854.22723287</v>
       </c>
       <c r="G29" t="n">
-        <v>28181127.12030366</v>
+        <v>2329060.539199864</v>
       </c>
       <c r="H29" t="n">
-        <v>28417607.04411729</v>
+        <v>2180617.211325429</v>
       </c>
       <c r="I29" t="n">
-        <v>29322952.27282741</v>
+        <v>2182875.940529041</v>
       </c>
       <c r="J29" t="n">
-        <v>30897159.36478845</v>
+        <v>2061698.881772422</v>
       </c>
       <c r="K29" t="n">
-        <v>32681135.50048487</v>
+        <v>2101806.103443532</v>
       </c>
       <c r="L29" t="n">
-        <v>33378386.33006976</v>
+        <v>2058179.070489141</v>
       </c>
       <c r="M29" t="n">
-        <v>32441136.56544037</v>
+        <v>2069770.886129893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39876879.73472133</v>
+        <v>227351.2106120999</v>
       </c>
       <c r="C30" t="n">
-        <v>44588567.74338487</v>
+        <v>131980.6828573588</v>
       </c>
       <c r="D30" t="n">
-        <v>43889089.04139112</v>
+        <v>194053.2402930416</v>
       </c>
       <c r="E30" t="n">
-        <v>46729965.77292324</v>
+        <v>531.8123881321881</v>
       </c>
       <c r="F30" t="n">
-        <v>41528171.55264394</v>
+        <v>-117799.1553874406</v>
       </c>
       <c r="G30" t="n">
-        <v>44720408.43728337</v>
+        <v>-24288.41989489368</v>
       </c>
       <c r="H30" t="n">
-        <v>50474049.65533007</v>
+        <v>-128046.2764126169</v>
       </c>
       <c r="I30" t="n">
-        <v>44704473.75187345</v>
+        <v>-186170.3194006914</v>
       </c>
       <c r="J30" t="n">
-        <v>48633420.06605329</v>
+        <v>-241107.7566399123</v>
       </c>
       <c r="K30" t="n">
-        <v>50949878.01934487</v>
+        <v>-281244.7808258725</v>
       </c>
       <c r="L30" t="n">
-        <v>49633195.19347708</v>
+        <v>31270.58474331454</v>
       </c>
       <c r="M30" t="n">
-        <v>43600156.11722393</v>
+        <v>-336459.5283951787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32016453.11163464</v>
+        <v>811672.058568234</v>
       </c>
       <c r="C31" t="n">
-        <v>35129875.8344527</v>
+        <v>1035582.412993416</v>
       </c>
       <c r="D31" t="n">
-        <v>33510005.23250324</v>
+        <v>1036700.441831423</v>
       </c>
       <c r="E31" t="n">
-        <v>37818890.46880104</v>
+        <v>786424.8573900557</v>
       </c>
       <c r="F31" t="n">
-        <v>31217039.75041113</v>
+        <v>872095.4794347369</v>
       </c>
       <c r="G31" t="n">
-        <v>36039474.49288181</v>
+        <v>699490.49193141</v>
       </c>
       <c r="H31" t="n">
-        <v>39919513.54025082</v>
+        <v>788579.3866246401</v>
       </c>
       <c r="I31" t="n">
-        <v>41068380.23268868</v>
+        <v>972273.5177151642</v>
       </c>
       <c r="J31" t="n">
-        <v>40974356.22857877</v>
+        <v>1069860.00571739</v>
       </c>
       <c r="K31" t="n">
-        <v>43750804.83707468</v>
+        <v>1159595.5848707</v>
       </c>
       <c r="L31" t="n">
-        <v>37351907.48557486</v>
+        <v>1119755.797825204</v>
       </c>
       <c r="M31" t="n">
-        <v>34688654.94135334</v>
+        <v>759700.8713891767</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1506375.010563057</v>
+        <v>1528602.969607922</v>
       </c>
       <c r="C32" t="n">
-        <v>1658673.330920226</v>
+        <v>1773871.469839529</v>
       </c>
       <c r="D32" t="n">
-        <v>1791152.868285916</v>
+        <v>1891977.467576955</v>
       </c>
       <c r="E32" t="n">
-        <v>1865552.55341857</v>
+        <v>1723056.527856771</v>
       </c>
       <c r="F32" t="n">
-        <v>1916430.678087106</v>
+        <v>1818169.355176822</v>
       </c>
       <c r="G32" t="n">
-        <v>2193616.335559059</v>
+        <v>1867726.333481554</v>
       </c>
       <c r="H32" t="n">
-        <v>2244965.153077897</v>
+        <v>1720778.678082062</v>
       </c>
       <c r="I32" t="n">
-        <v>2342546.228025842</v>
+        <v>1977163.969005346</v>
       </c>
       <c r="J32" t="n">
-        <v>2433020.642577682</v>
+        <v>1959442.722866214</v>
       </c>
       <c r="K32" t="n">
-        <v>2519843.641932207</v>
+        <v>1816259.972748236</v>
       </c>
       <c r="L32" t="n">
-        <v>2606454.981579099</v>
+        <v>1967244.293601588</v>
       </c>
       <c r="M32" t="n">
-        <v>2683598.068150657</v>
+        <v>1607818.982849431</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4854382.551846385</v>
+        <v>2614605.886644868</v>
       </c>
       <c r="C33" t="n">
-        <v>4877598.155666824</v>
+        <v>2826731.334506264</v>
       </c>
       <c r="D33" t="n">
-        <v>6001877.165274854</v>
+        <v>2889895.337273534</v>
       </c>
       <c r="E33" t="n">
-        <v>6468399.356346212</v>
+        <v>2670339.512784363</v>
       </c>
       <c r="F33" t="n">
-        <v>5072960.987983966</v>
+        <v>3194492.270236668</v>
       </c>
       <c r="G33" t="n">
-        <v>5347693.180712923</v>
+        <v>3376371.985736144</v>
       </c>
       <c r="H33" t="n">
-        <v>4946683.466141866</v>
+        <v>3348168.785990886</v>
       </c>
       <c r="I33" t="n">
-        <v>5911402.262031326</v>
+        <v>3233589.068836529</v>
       </c>
       <c r="J33" t="n">
-        <v>5445265.956269262</v>
+        <v>3208244.986985752</v>
       </c>
       <c r="K33" t="n">
-        <v>5294551.749247489</v>
+        <v>3048860.399844917</v>
       </c>
       <c r="L33" t="n">
-        <v>5988799.498705684</v>
+        <v>3156626.698171186</v>
       </c>
       <c r="M33" t="n">
-        <v>5561432.039259456</v>
+        <v>3113261.702337139</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11594016.71685352</v>
+        <v>2545007.779871166</v>
       </c>
       <c r="C34" t="n">
-        <v>9386689.638061067</v>
+        <v>2720287.805913323</v>
       </c>
       <c r="D34" t="n">
-        <v>9437215.686078273</v>
+        <v>2921300.311145817</v>
       </c>
       <c r="E34" t="n">
-        <v>11779905.88175073</v>
+        <v>3045449.214377887</v>
       </c>
       <c r="F34" t="n">
-        <v>10741698.07800103</v>
+        <v>3111211.188737253</v>
       </c>
       <c r="G34" t="n">
-        <v>10702770.07395262</v>
+        <v>2885151.921124077</v>
       </c>
       <c r="H34" t="n">
-        <v>10595321.53439786</v>
+        <v>3792727.663416048</v>
       </c>
       <c r="I34" t="n">
-        <v>9388770.261045029</v>
+        <v>2880029.727699139</v>
       </c>
       <c r="J34" t="n">
-        <v>12588787.36131402</v>
+        <v>3859857.756390693</v>
       </c>
       <c r="K34" t="n">
-        <v>11797601.54815658</v>
+        <v>3114666.723192496</v>
       </c>
       <c r="L34" t="n">
-        <v>13377789.59836032</v>
+        <v>3588056.830510688</v>
       </c>
       <c r="M34" t="n">
-        <v>12936191.24621667</v>
+        <v>3212456.693766872</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5151195.144933189</v>
+        <v>1207857.174336685</v>
       </c>
       <c r="C35" t="n">
-        <v>6217138.698760108</v>
+        <v>1625091.387510834</v>
       </c>
       <c r="D35" t="n">
-        <v>5542609.314857657</v>
+        <v>1301771.043277246</v>
       </c>
       <c r="E35" t="n">
-        <v>5969141.036239952</v>
+        <v>1222587.891960748</v>
       </c>
       <c r="F35" t="n">
-        <v>5711541.826697337</v>
+        <v>1094833.915187974</v>
       </c>
       <c r="G35" t="n">
-        <v>6060967.266156523</v>
+        <v>1544594.822031628</v>
       </c>
       <c r="H35" t="n">
-        <v>6334669.390255089</v>
+        <v>1348915.015395952</v>
       </c>
       <c r="I35" t="n">
-        <v>6320475.317294592</v>
+        <v>1508015.178974073</v>
       </c>
       <c r="J35" t="n">
-        <v>6982844.820723891</v>
+        <v>1676687.094165074</v>
       </c>
       <c r="K35" t="n">
-        <v>7104168.831708844</v>
+        <v>1434910.782351757</v>
       </c>
       <c r="L35" t="n">
-        <v>7453460.229153289</v>
+        <v>1386173.257164736</v>
       </c>
       <c r="M35" t="n">
-        <v>6890728.42015453</v>
+        <v>1190513.607054425</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2954117.837899718</v>
+        <v>1334376.101471534</v>
       </c>
       <c r="C36" t="n">
-        <v>4001756.583969724</v>
+        <v>1131641.799578934</v>
       </c>
       <c r="D36" t="n">
-        <v>3402301.023334618</v>
+        <v>1324562.558168666</v>
       </c>
       <c r="E36" t="n">
-        <v>3487399.920624741</v>
+        <v>1219975.83016753</v>
       </c>
       <c r="F36" t="n">
-        <v>4568271.033179652</v>
+        <v>1276449.118097398</v>
       </c>
       <c r="G36" t="n">
-        <v>3378435.111994559</v>
+        <v>1225302.218191786</v>
       </c>
       <c r="H36" t="n">
-        <v>2717954.065393243</v>
+        <v>986553.6281838387</v>
       </c>
       <c r="I36" t="n">
-        <v>3376141.069252358</v>
+        <v>989573.9856761162</v>
       </c>
       <c r="J36" t="n">
-        <v>3787431.264019257</v>
+        <v>1196724.326097127</v>
       </c>
       <c r="K36" t="n">
-        <v>3215256.546520276</v>
+        <v>825285.0212576946</v>
       </c>
       <c r="L36" t="n">
-        <v>3089884.146516842</v>
+        <v>915428.375896509</v>
       </c>
       <c r="M36" t="n">
-        <v>3594274.602137908</v>
+        <v>901505.7524656896</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3344360.396968589</v>
+        <v>2757800.721691766</v>
       </c>
       <c r="C37" t="n">
-        <v>4892735.546546035</v>
+        <v>4115609.338060443</v>
       </c>
       <c r="D37" t="n">
-        <v>6556896.034788797</v>
+        <v>4105557.191568871</v>
       </c>
       <c r="E37" t="n">
-        <v>4482387.85042857</v>
+        <v>3364138.405548086</v>
       </c>
       <c r="F37" t="n">
-        <v>3921731.098858995</v>
+        <v>3334124.113657359</v>
       </c>
       <c r="G37" t="n">
-        <v>3857079.830826782</v>
+        <v>3704522.717288188</v>
       </c>
       <c r="H37" t="n">
-        <v>6350374.220480105</v>
+        <v>4221043.058028949</v>
       </c>
       <c r="I37" t="n">
-        <v>7034315.78911678</v>
+        <v>3614961.361386238</v>
       </c>
       <c r="J37" t="n">
-        <v>4779099.960524504</v>
+        <v>4353375.82256581</v>
       </c>
       <c r="K37" t="n">
-        <v>6614696.142776352</v>
+        <v>3808819.971412387</v>
       </c>
       <c r="L37" t="n">
-        <v>5168074.888959952</v>
+        <v>3213738.350188276</v>
       </c>
       <c r="M37" t="n">
-        <v>6356759.515927821</v>
+        <v>2811578.350447712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1058449.259778299</v>
+        <v>4302286.062644413</v>
       </c>
       <c r="C38" t="n">
-        <v>2501313.395382961</v>
+        <v>4076196.093924571</v>
       </c>
       <c r="D38" t="n">
-        <v>2756360.938412874</v>
+        <v>4441926.549301644</v>
       </c>
       <c r="E38" t="n">
-        <v>647371.2110325799</v>
+        <v>4800753.518946153</v>
       </c>
       <c r="F38" t="n">
-        <v>928712.7434977563</v>
+        <v>4582355.377104307</v>
       </c>
       <c r="G38" t="n">
-        <v>1997900.666804919</v>
+        <v>4711641.247357517</v>
       </c>
       <c r="H38" t="n">
-        <v>980662.5748008986</v>
+        <v>4800925.03446569</v>
       </c>
       <c r="I38" t="n">
-        <v>537548.0700744673</v>
+        <v>5413255.197462941</v>
       </c>
       <c r="J38" t="n">
-        <v>1255940.653910698</v>
+        <v>5266238.300140429</v>
       </c>
       <c r="K38" t="n">
-        <v>1709810.708372995</v>
+        <v>4757823.503553555</v>
       </c>
       <c r="L38" t="n">
-        <v>1807818.901174006</v>
+        <v>5392119.559938993</v>
       </c>
       <c r="M38" t="n">
-        <v>761681.4535745296</v>
+        <v>4468626.383397754</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3826890.319199538</v>
+        <v>4399771.22696109</v>
       </c>
       <c r="C39" t="n">
-        <v>3317302.307880132</v>
+        <v>5071575.519070522</v>
       </c>
       <c r="D39" t="n">
-        <v>3504767.147442328</v>
+        <v>5198493.268495506</v>
       </c>
       <c r="E39" t="n">
-        <v>4215282.495426395</v>
+        <v>5156353.478940058</v>
       </c>
       <c r="F39" t="n">
-        <v>3801713.486849964</v>
+        <v>5020542.085952596</v>
       </c>
       <c r="G39" t="n">
-        <v>4502594.273323166</v>
+        <v>5336519.855299185</v>
       </c>
       <c r="H39" t="n">
-        <v>3409915.961467789</v>
+        <v>5176883.556989115</v>
       </c>
       <c r="I39" t="n">
-        <v>3566064.353168518</v>
+        <v>5272501.939196881</v>
       </c>
       <c r="J39" t="n">
-        <v>3587803.13850382</v>
+        <v>5916670.386118323</v>
       </c>
       <c r="K39" t="n">
-        <v>4838996.553711472</v>
+        <v>4762551.5194404</v>
       </c>
       <c r="L39" t="n">
-        <v>4432016.460743614</v>
+        <v>4785844.999437829</v>
       </c>
       <c r="M39" t="n">
-        <v>4683996.204061246</v>
+        <v>4391461.54603682</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10423255.39047339</v>
+        <v>4301013.747738395</v>
       </c>
       <c r="C40" t="n">
-        <v>10558843.26085531</v>
+        <v>5049175.59423527</v>
       </c>
       <c r="D40" t="n">
-        <v>10884282.82142127</v>
+        <v>5070062.722073623</v>
       </c>
       <c r="E40" t="n">
-        <v>13492142.43008578</v>
+        <v>4757620.641832884</v>
       </c>
       <c r="F40" t="n">
-        <v>11161378.25292656</v>
+        <v>5077464.623050175</v>
       </c>
       <c r="G40" t="n">
-        <v>13329455.86152609</v>
+        <v>4843605.695926331</v>
       </c>
       <c r="H40" t="n">
-        <v>11593687.6165229</v>
+        <v>5231871.999777881</v>
       </c>
       <c r="I40" t="n">
-        <v>11260375.98789321</v>
+        <v>5037916.215820482</v>
       </c>
       <c r="J40" t="n">
-        <v>13195622.29823088</v>
+        <v>5336339.681594667</v>
       </c>
       <c r="K40" t="n">
-        <v>14615386.337819</v>
+        <v>4961159.864460682</v>
       </c>
       <c r="L40" t="n">
-        <v>13983616.93240101</v>
+        <v>5233514.966142928</v>
       </c>
       <c r="M40" t="n">
-        <v>14186739.61435366</v>
+        <v>4227015.604914879</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2413003.851837897</v>
+        <v>2260651.386163255</v>
       </c>
       <c r="C41" t="n">
-        <v>6487689.004061917</v>
+        <v>2921804.278401207</v>
       </c>
       <c r="D41" t="n">
-        <v>6031971.383879579</v>
+        <v>3357591.039868202</v>
       </c>
       <c r="E41" t="n">
-        <v>6759494.594355769</v>
+        <v>2618255.085195533</v>
       </c>
       <c r="F41" t="n">
-        <v>5410839.043554757</v>
+        <v>2849103.923810282</v>
       </c>
       <c r="G41" t="n">
-        <v>6972439.115894985</v>
+        <v>3029343.108212142</v>
       </c>
       <c r="H41" t="n">
-        <v>6019898.547415948</v>
+        <v>3060890.130131993</v>
       </c>
       <c r="I41" t="n">
-        <v>13240561.69582591</v>
+        <v>3264082.442718761</v>
       </c>
       <c r="J41" t="n">
-        <v>9849100.52910519</v>
+        <v>3366731.131438427</v>
       </c>
       <c r="K41" t="n">
-        <v>6653935.490595776</v>
+        <v>2797765.172026808</v>
       </c>
       <c r="L41" t="n">
-        <v>6404153.404732337</v>
+        <v>3447376.928313511</v>
       </c>
       <c r="M41" t="n">
-        <v>6347139.807959477</v>
+        <v>2741200.807228842</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7803053.559152529</v>
+        <v>3357922.845628154</v>
       </c>
       <c r="C42" t="n">
-        <v>9725366.103001889</v>
+        <v>3629669.967379382</v>
       </c>
       <c r="D42" t="n">
-        <v>11309361.63819053</v>
+        <v>3900495.198026029</v>
       </c>
       <c r="E42" t="n">
-        <v>11613972.45755797</v>
+        <v>3778862.78599836</v>
       </c>
       <c r="F42" t="n">
-        <v>9026551.966069076</v>
+        <v>3856175.895568266</v>
       </c>
       <c r="G42" t="n">
-        <v>10178763.49628361</v>
+        <v>3857521.669037597</v>
       </c>
       <c r="H42" t="n">
-        <v>10563249.74155802</v>
+        <v>4300832.52842164</v>
       </c>
       <c r="I42" t="n">
-        <v>9381154.895517038</v>
+        <v>4776234.358951079</v>
       </c>
       <c r="J42" t="n">
-        <v>10920111.64685083</v>
+        <v>4560305.484972678</v>
       </c>
       <c r="K42" t="n">
-        <v>10435055.77330615</v>
+        <v>4348096.950955703</v>
       </c>
       <c r="L42" t="n">
-        <v>11086634.33889578</v>
+        <v>4191070.213450209</v>
       </c>
       <c r="M42" t="n">
-        <v>13695006.1000317</v>
+        <v>3108110.926487921</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3382748.660047525</v>
+        <v>2175875.989120075</v>
       </c>
       <c r="C43" t="n">
-        <v>4050006.4270813</v>
+        <v>3136769.032760396</v>
       </c>
       <c r="D43" t="n">
-        <v>5225437.415934556</v>
+        <v>3240661.981052201</v>
       </c>
       <c r="E43" t="n">
-        <v>5194238.265606397</v>
+        <v>3049405.103370566</v>
       </c>
       <c r="F43" t="n">
-        <v>3535639.374573953</v>
+        <v>2938347.74709262</v>
       </c>
       <c r="G43" t="n">
-        <v>3792142.811407713</v>
+        <v>2974423.514125526</v>
       </c>
       <c r="H43" t="n">
-        <v>4644185.553871315</v>
+        <v>3033841.350846826</v>
       </c>
       <c r="I43" t="n">
-        <v>4002905.917018358</v>
+        <v>3048695.007562395</v>
       </c>
       <c r="J43" t="n">
-        <v>5605489.308670521</v>
+        <v>3047214.147077723</v>
       </c>
       <c r="K43" t="n">
-        <v>5481600.695166137</v>
+        <v>3152935.879747549</v>
       </c>
       <c r="L43" t="n">
-        <v>5020314.69689079</v>
+        <v>3363058.893248145</v>
       </c>
       <c r="M43" t="n">
-        <v>5998783.686790677</v>
+        <v>2293404.696805167</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11014329.16032417</v>
+        <v>4979823.63009786</v>
       </c>
       <c r="C44" t="n">
-        <v>13737083.51816326</v>
+        <v>5807547.619283127</v>
       </c>
       <c r="D44" t="n">
-        <v>13416778.49436911</v>
+        <v>5284922.347258454</v>
       </c>
       <c r="E44" t="n">
-        <v>12678661.8115311</v>
+        <v>4630682.289592258</v>
       </c>
       <c r="F44" t="n">
-        <v>13976001.45437008</v>
+        <v>4964849.856334721</v>
       </c>
       <c r="G44" t="n">
-        <v>12404238.91332825</v>
+        <v>5509388.558982199</v>
       </c>
       <c r="H44" t="n">
-        <v>12175126.53347138</v>
+        <v>4986360.262388169</v>
       </c>
       <c r="I44" t="n">
-        <v>14081303.30955574</v>
+        <v>6130258.776385361</v>
       </c>
       <c r="J44" t="n">
-        <v>13972018.79972916</v>
+        <v>5422498.042978586</v>
       </c>
       <c r="K44" t="n">
-        <v>13766822.50453689</v>
+        <v>5265179.517120505</v>
       </c>
       <c r="L44" t="n">
-        <v>12539179.27563604</v>
+        <v>6178011.9048451</v>
       </c>
       <c r="M44" t="n">
-        <v>14881487.94425572</v>
+        <v>4604490.366414645</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3707629.462905891</v>
+        <v>2384934.450459485</v>
       </c>
       <c r="C45" t="n">
-        <v>4743046.714733241</v>
+        <v>2818495.589649176</v>
       </c>
       <c r="D45" t="n">
-        <v>5417609.254983929</v>
+        <v>3169857.938958603</v>
       </c>
       <c r="E45" t="n">
-        <v>4593691.498704186</v>
+        <v>3030232.832447307</v>
       </c>
       <c r="F45" t="n">
-        <v>4320823.63604849</v>
+        <v>2635995.893256109</v>
       </c>
       <c r="G45" t="n">
-        <v>3514957.798916897</v>
+        <v>2924712.939505914</v>
       </c>
       <c r="H45" t="n">
-        <v>5592037.770071763</v>
+        <v>2935611.95271352</v>
       </c>
       <c r="I45" t="n">
-        <v>4786131.179608184</v>
+        <v>3468655.098485428</v>
       </c>
       <c r="J45" t="n">
-        <v>4378080.455460398</v>
+        <v>2797586.362377687</v>
       </c>
       <c r="K45" t="n">
-        <v>4521098.364544664</v>
+        <v>2863114.739583388</v>
       </c>
       <c r="L45" t="n">
-        <v>4020094.446634237</v>
+        <v>2997976.279396095</v>
       </c>
       <c r="M45" t="n">
-        <v>5313081.749203561</v>
+        <v>2405289.713503159</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9389721.351804521</v>
+        <v>1991519.711776581</v>
       </c>
       <c r="C46" t="n">
-        <v>12435865.50610312</v>
+        <v>2834479.17782309</v>
       </c>
       <c r="D46" t="n">
-        <v>12254916.34018945</v>
+        <v>2112069.346751876</v>
       </c>
       <c r="E46" t="n">
-        <v>12340481.50507944</v>
+        <v>2108725.554244515</v>
       </c>
       <c r="F46" t="n">
-        <v>9283349.381551294</v>
+        <v>2014466.314166957</v>
       </c>
       <c r="G46" t="n">
-        <v>11693339.6469857</v>
+        <v>2068453.037825074</v>
       </c>
       <c r="H46" t="n">
-        <v>15147563.52514234</v>
+        <v>2209477.561783333</v>
       </c>
       <c r="I46" t="n">
-        <v>12307604.36302448</v>
+        <v>2429121.59099728</v>
       </c>
       <c r="J46" t="n">
-        <v>9651036.981955448</v>
+        <v>2490768.706176097</v>
       </c>
       <c r="K46" t="n">
-        <v>9060976.126364943</v>
+        <v>1813980.848788162</v>
       </c>
       <c r="L46" t="n">
-        <v>10784079.87099445</v>
+        <v>2140288.674511243</v>
       </c>
       <c r="M46" t="n">
-        <v>14717845.29015053</v>
+        <v>1865701.74887832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2306652.768216735</v>
+        <v>1911979.380227983</v>
       </c>
       <c r="C47" t="n">
-        <v>2315493.618689459</v>
+        <v>2086528.086577398</v>
       </c>
       <c r="D47" t="n">
-        <v>2595682.932373642</v>
+        <v>2348229.222116787</v>
       </c>
       <c r="E47" t="n">
-        <v>2751364.849292843</v>
+        <v>2405904.195864787</v>
       </c>
       <c r="F47" t="n">
-        <v>2767267.814466597</v>
+        <v>2103093.506192097</v>
       </c>
       <c r="G47" t="n">
-        <v>2938072.080077501</v>
+        <v>2180847.967736671</v>
       </c>
       <c r="H47" t="n">
-        <v>2838618.256771886</v>
+        <v>2227848.976091349</v>
       </c>
       <c r="I47" t="n">
-        <v>2867096.916182757</v>
+        <v>2225442.684830761</v>
       </c>
       <c r="J47" t="n">
-        <v>2902860.420988</v>
+        <v>2267586.391620514</v>
       </c>
       <c r="K47" t="n">
-        <v>2814733.939049021</v>
+        <v>2051878.667670302</v>
       </c>
       <c r="L47" t="n">
-        <v>2887444.035921972</v>
+        <v>2026294.858605481</v>
       </c>
       <c r="M47" t="n">
-        <v>2875971.28533419</v>
+        <v>2079674.552950996</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>273215.4880513306</v>
+        <v>4604195.432237928</v>
       </c>
       <c r="C48" t="n">
-        <v>161382.6289079592</v>
+        <v>4695012.604707951</v>
       </c>
       <c r="D48" t="n">
-        <v>35730.55971681725</v>
+        <v>5050845.700750758</v>
       </c>
       <c r="E48" t="n">
-        <v>66700.28973585303</v>
+        <v>4552900.445962902</v>
       </c>
       <c r="F48" t="n">
-        <v>-158668.746403499</v>
+        <v>4311840.827590959</v>
       </c>
       <c r="G48" t="n">
-        <v>-309519.5780114339</v>
+        <v>4602745.018030564</v>
       </c>
       <c r="H48" t="n">
-        <v>-284862.2644650424</v>
+        <v>4550374.117555105</v>
       </c>
       <c r="I48" t="n">
-        <v>-386555.5070425039</v>
+        <v>4993592.87130692</v>
       </c>
       <c r="J48" t="n">
-        <v>-478819.9130569627</v>
+        <v>5013203.247874417</v>
       </c>
       <c r="K48" t="n">
-        <v>-568316.2912302411</v>
+        <v>4679803.998476336</v>
       </c>
       <c r="L48" t="n">
-        <v>-643376.0907167941</v>
+        <v>4949908.773614199</v>
       </c>
       <c r="M48" t="n">
-        <v>-366095.3521963805</v>
+        <v>4578666.283854053</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>534952.7279424076</v>
+        <v>935431.9325447243</v>
       </c>
       <c r="C49" t="n">
-        <v>647098.2056683137</v>
+        <v>1177463.51486488</v>
       </c>
       <c r="D49" t="n">
-        <v>868974.2186593281</v>
+        <v>1190674.242289092</v>
       </c>
       <c r="E49" t="n">
-        <v>868111.576834548</v>
+        <v>960243.2051445825</v>
       </c>
       <c r="F49" t="n">
-        <v>615842.2546086984</v>
+        <v>951399.1631065501</v>
       </c>
       <c r="G49" t="n">
-        <v>699607.2778938628</v>
+        <v>995125.8984390837</v>
       </c>
       <c r="H49" t="n">
-        <v>640283.7033483948</v>
+        <v>1017502.523802405</v>
       </c>
       <c r="I49" t="n">
-        <v>612376.9514581987</v>
+        <v>1118876.644702309</v>
       </c>
       <c r="J49" t="n">
-        <v>794288.1565404095</v>
+        <v>946491.1038371269</v>
       </c>
       <c r="K49" t="n">
-        <v>890116.9647742789</v>
+        <v>970200.9695654422</v>
       </c>
       <c r="L49" t="n">
-        <v>978155.5686561805</v>
+        <v>1013748.745261713</v>
       </c>
       <c r="M49" t="n">
-        <v>936593.578552231</v>
+        <v>905588.6865477969</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1487590.354796594</v>
+        <v>2754597.147277337</v>
       </c>
       <c r="C50" t="n">
-        <v>1577591.375987478</v>
+        <v>2876828.100883901</v>
       </c>
       <c r="D50" t="n">
-        <v>1824574.460582788</v>
+        <v>3086308.822622335</v>
       </c>
       <c r="E50" t="n">
-        <v>1944408.545936187</v>
+        <v>3059913.701911656</v>
       </c>
       <c r="F50" t="n">
-        <v>1777227.25088574</v>
+        <v>3460103.628142143</v>
       </c>
       <c r="G50" t="n">
-        <v>1874088.336578845</v>
+        <v>3220283.630778798</v>
       </c>
       <c r="H50" t="n">
-        <v>1784833.86484706</v>
+        <v>3328807.139789997</v>
       </c>
       <c r="I50" t="n">
-        <v>1780192.432972162</v>
+        <v>3259530.68136319</v>
       </c>
       <c r="J50" t="n">
-        <v>2038353.428183042</v>
+        <v>3199894.753512181</v>
       </c>
       <c r="K50" t="n">
-        <v>2022408.428748443</v>
+        <v>3266934.843229636</v>
       </c>
       <c r="L50" t="n">
-        <v>1880998.439603956</v>
+        <v>3377234.620553818</v>
       </c>
       <c r="M50" t="n">
-        <v>2033754.011492895</v>
+        <v>3078792.533898189</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2830548.852945232</v>
+        <v>3179509.222077157</v>
       </c>
       <c r="C51" t="n">
-        <v>2701288.757488841</v>
+        <v>3205294.435375093</v>
       </c>
       <c r="D51" t="n">
-        <v>2904497.522938319</v>
+        <v>3564616.52221251</v>
       </c>
       <c r="E51" t="n">
-        <v>2958917.349827554</v>
+        <v>3460699.374209586</v>
       </c>
       <c r="F51" t="n">
-        <v>2730788.402504712</v>
+        <v>3440500.719819582</v>
       </c>
       <c r="G51" t="n">
-        <v>3246537.119331087</v>
+        <v>3408161.128040296</v>
       </c>
       <c r="H51" t="n">
-        <v>3458861.176161302</v>
+        <v>3532327.964146764</v>
       </c>
       <c r="I51" t="n">
-        <v>3383916.410816576</v>
+        <v>3679547.571132261</v>
       </c>
       <c r="J51" t="n">
-        <v>3261420.630298393</v>
+        <v>3674325.852443526</v>
       </c>
       <c r="K51" t="n">
-        <v>3228319.27129995</v>
+        <v>3683235.32981307</v>
       </c>
       <c r="L51" t="n">
-        <v>3061339.268544227</v>
+        <v>3625827.013403208</v>
       </c>
       <c r="M51" t="n">
-        <v>3161660.377491105</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2835349.846777558</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2723198.805265823</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2876591.688766839</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3056147.187924666</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3159277.851295888</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3204433.720216681</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3204463.871892885</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3845966.763672407</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2913887.823022604</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3874679.254694621</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3110866.739520581</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3565997.250701854</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1427353.623453859</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1509014.489914546</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1927942.43335808</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1606277.988188887</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1528710.75189187</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1402540.579560695</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1764655.556652301</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1659674.510590425</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1820277.745849342</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1990413.317961133</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1750072.951356418</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1702740.530343785</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>841391.8431217273</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1302851.010273129</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1099877.915371952</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1292568.398775654</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1187756.982500931</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1244011.022621613</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1264403.495576354</v>
-      </c>
-      <c r="I54" t="n">
-        <v>953705.6374323682</v>
-      </c>
-      <c r="J54" t="n">
-        <v>956524.6784623247</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1163479.680949969</v>
-      </c>
-      <c r="L54" t="n">
-        <v>791851.7429472856</v>
-      </c>
-      <c r="M54" t="n">
-        <v>881812.4678137803</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3060183.874729116</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3067028.114950007</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4420748.140109538</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4406717.953227062</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3661338.549737352</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3627793.585076541</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4330234.507339794</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4508222.696476236</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3898878.356585886</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4634245.501558647</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4086751.560139819</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3488887.789632872</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3849262.812459818</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4499632.743200596</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4286797.938864481</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4665517.110014782</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5037074.119965622</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4831148.094532352</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5148632.086985377</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5073930.47318855</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5698002.749637369</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5562487.125739624</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5065336.370577772</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5710683.65896319</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4210839.547037772</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4520656.695990339</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5194371.194487743</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5323118.875558818</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5282725.046167141</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5148583.269234904</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5565798.702587835</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5308100.080242784</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5405194.401922626</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6050776.133608792</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4898003.488316757</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4922587.291079872</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3933456.546424751</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4261189.239880805</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5007114.436451489</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5025810.244258951</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4711219.40001634</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5028956.165425512</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4756253.184363191</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5179272.684903364</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4983335.56124368</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5279816.901244098</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4902732.795374377</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5173222.172862172</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2865113.719010932</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2556627.019590389</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3237921.112225836</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3693441.878539838</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2973431.24371331</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3223230.329102666</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3581357.93568983</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3471800.48780824</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3692823.844729152</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3812955.938853982</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3261121.838358445</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3927518.741575578</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2936887.492061362</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3392682.535239873</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3665454.83589138</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3937295.856204303</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3816667.82588719</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3894975.458764372</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4069751.777438172</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4341595.370927497</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4817960.811899397</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4602984.33433325</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4391718.706326663</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4235624.179489625</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2062699.515151379</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2012278.028381712</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2968045.284197967</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3066854.000440341</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2870567.94880538</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2754535.911408028</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2814185.220314828</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2840241.572447152</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2850279.347581444</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2844045.786356658</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2945073.491954649</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3150567.940785634</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4961247.2968417</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5340498.784216833</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6172320.44116688</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5653708.185787804</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5003400.409083306</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5341415.255360465</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6409264.69759001</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5370449.547529201</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6517930.968765219</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5813689.281902251</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5659821.461695127</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6576036.032437889</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2415481.031697109</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2445693.830468234</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2884576.073961962</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3241159.220746524</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3106637.187306676</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2717383.090613431</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3106993.059669096</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3026735.04299638</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3564496.484484369</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2898033.845724054</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2968108.520079208</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3107386.987760645</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1883831.995329246</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2011576.196261381</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2854720.241570269</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2132483.176399197</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2129301.084938869</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2035193.196369254</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2198495.740907211</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2230478.612040203</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2450246.583437082</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2512009.697222314</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1835330.328041728</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2161739.603265643</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2401560.329697669</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2484127.127686557</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2690699.385125577</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2983778.137885016</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3072214.836753828</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2799561.429961849</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3023042.929293038</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2982915.016773384</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3008876.744162049</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3078877.598153186</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2890480.059428967</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2891670.707257148</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5075892.183907414</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5327189.549938232</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5464899.023717257</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5866695.37552325</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5413788.34853211</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5216882.834082305</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5400528.386799988</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5541064.371544532</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6025831.73694504</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6086160.318357572</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5792682.840888637</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6101888.097020906</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>811483.8572850466</v>
-      </c>
-      <c r="C67" t="n">
-        <v>981929.9991614693</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1223604.139892422</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1236466.37393722</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1005694.223295602</v>
-      </c>
-      <c r="G67" t="n">
-        <v>996511.4430045994</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1088381.263580339</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1061965.478353626</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1163021.367478051</v>
-      </c>
-      <c r="K67" t="n">
-        <v>990321.1503478555</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1013716.359018673</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1056968.253358083</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2735483.989368017</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2841240.282227085</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2976889.756712765</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3199519.758777393</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3186010.075267437</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3598826.414618296</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3403847.882186937</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3492033.178136814</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3434636.813984308</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3386643.094204901</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3465092.850518164</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3586575.142322373</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2580381.586241399</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2739430.021603003</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2741888.80204272</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3078315.500226781</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2951970.326497484</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2909776.60413554</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2909133.205754679</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2958960.649016322</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3085469.377063413</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3059959.785792274</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3048973.559710318</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2972115.210282809</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>46246894.18059273</v>
-      </c>
-      <c r="C70" t="n">
-        <v>51282237.62853488</v>
-      </c>
-      <c r="D70" t="n">
-        <v>55643075.4466712</v>
-      </c>
-      <c r="E70" t="n">
-        <v>60725343.19967207</v>
-      </c>
-      <c r="F70" t="n">
-        <v>65251876.99246282</v>
-      </c>
-      <c r="G70" t="n">
-        <v>70431437.79058568</v>
-      </c>
-      <c r="H70" t="n">
-        <v>76308455.852575</v>
-      </c>
-      <c r="I70" t="n">
-        <v>81815666.01712586</v>
-      </c>
-      <c r="J70" t="n">
-        <v>86750732.79963529</v>
-      </c>
-      <c r="K70" t="n">
-        <v>92267009.27874294</v>
-      </c>
-      <c r="L70" t="n">
-        <v>94950714.82903963</v>
-      </c>
-      <c r="M70" t="n">
-        <v>101370769.7905253</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>23069427.48541209</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34421138.47857163</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34635697.81577474</v>
-      </c>
-      <c r="E71" t="n">
-        <v>38322758.71902414</v>
-      </c>
-      <c r="F71" t="n">
-        <v>41142171.92541787</v>
-      </c>
-      <c r="G71" t="n">
-        <v>43367683.49858896</v>
-      </c>
-      <c r="H71" t="n">
-        <v>43294254.96097738</v>
-      </c>
-      <c r="I71" t="n">
-        <v>45786276.82949396</v>
-      </c>
-      <c r="J71" t="n">
-        <v>48332064.13695113</v>
-      </c>
-      <c r="K71" t="n">
-        <v>49776715.96791497</v>
-      </c>
-      <c r="L71" t="n">
-        <v>53023900.61520863</v>
-      </c>
-      <c r="M71" t="n">
-        <v>65792359.79019503</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-63784.62387844105</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2189563.454602675</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2642676.742697929</v>
-      </c>
-      <c r="E72" t="n">
-        <v>920750.5461851783</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5243489.159880423</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-72089.27502121474</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1723949.32249786</v>
-      </c>
-      <c r="I72" t="n">
-        <v>666599.0414356539</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2047825.598767752</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-268555.3182999033</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2389702.232939694</v>
-      </c>
-      <c r="M72" t="n">
-        <v>305845.303369249</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11299144.24670998</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13982924.22855849</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15992303.99822215</v>
-      </c>
-      <c r="E73" t="n">
-        <v>15153352.64771733</v>
-      </c>
-      <c r="F73" t="n">
-        <v>16466464.35107988</v>
-      </c>
-      <c r="G73" t="n">
-        <v>15322826.93023765</v>
-      </c>
-      <c r="H73" t="n">
-        <v>16075575.8729441</v>
-      </c>
-      <c r="I73" t="n">
-        <v>16347467.33589393</v>
-      </c>
-      <c r="J73" t="n">
-        <v>16433512.16894999</v>
-      </c>
-      <c r="K73" t="n">
-        <v>17583584.27162362</v>
-      </c>
-      <c r="L73" t="n">
-        <v>16643044.81679659</v>
-      </c>
-      <c r="M73" t="n">
-        <v>17668308.56014073</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>12471695.75114598</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18889163.13020472</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20939702.55522815</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20382907.33123189</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18606317.20123703</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18432179.3891674</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18040719.49287168</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15012283.96687662</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17578627.6474508</v>
-      </c>
-      <c r="K74" t="n">
-        <v>17399019.91678231</v>
-      </c>
-      <c r="L74" t="n">
-        <v>18953956.44098961</v>
-      </c>
-      <c r="M74" t="n">
-        <v>24476205.46959988</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>27690079.68378869</v>
-      </c>
-      <c r="C75" t="n">
-        <v>29055912.24137931</v>
-      </c>
-      <c r="D75" t="n">
-        <v>32225878.00962792</v>
-      </c>
-      <c r="E75" t="n">
-        <v>33046182.69664899</v>
-      </c>
-      <c r="F75" t="n">
-        <v>31926830.71284024</v>
-      </c>
-      <c r="G75" t="n">
-        <v>32744594.75475772</v>
-      </c>
-      <c r="H75" t="n">
-        <v>31346540.10214555</v>
-      </c>
-      <c r="I75" t="n">
-        <v>32222644.64845721</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30871550.84793748</v>
-      </c>
-      <c r="K75" t="n">
-        <v>30876506.6774323</v>
-      </c>
-      <c r="L75" t="n">
-        <v>31107204.91705868</v>
-      </c>
-      <c r="M75" t="n">
-        <v>39522536.94929736</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19256783.78314278</v>
-      </c>
-      <c r="C76" t="n">
-        <v>19393299.36831305</v>
-      </c>
-      <c r="D76" t="n">
-        <v>20883250.54809022</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22662893.96949686</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23838734.66986652</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23975247.82221009</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24003389.33869191</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24255765.35111734</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24671472.06019675</v>
-      </c>
-      <c r="K76" t="n">
-        <v>25157917.23371943</v>
-      </c>
-      <c r="L76" t="n">
-        <v>25214018.95064345</v>
-      </c>
-      <c r="M76" t="n">
-        <v>25761573.79817244</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22050884.77754173</v>
-      </c>
-      <c r="C77" t="n">
-        <v>23464090.98254181</v>
-      </c>
-      <c r="D77" t="n">
-        <v>24007559.0907841</v>
-      </c>
-      <c r="E77" t="n">
-        <v>25083042.11218183</v>
-      </c>
-      <c r="F77" t="n">
-        <v>25583547.51668588</v>
-      </c>
-      <c r="G77" t="n">
-        <v>27749709.67657205</v>
-      </c>
-      <c r="H77" t="n">
-        <v>27960542.0026853</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28823937.65774608</v>
-      </c>
-      <c r="J77" t="n">
-        <v>30370746.86994129</v>
-      </c>
-      <c r="K77" t="n">
-        <v>32127899.21322284</v>
-      </c>
-      <c r="L77" t="n">
-        <v>32827415.42073089</v>
-      </c>
-      <c r="M77" t="n">
-        <v>32026836.64112848</v>
+        <v>3435367.382155257</v>
       </c>
     </row>
   </sheetData>
